--- a/项目文档/测试用例/网络侦察兵测试用例-sqy&lxf.xlsx
+++ b/项目文档/测试用例/网络侦察兵测试用例-sqy&lxf.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\C2\项目文档\测试用例\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\刘\Desktop\APR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B60A173-CB42-4CC2-AF02-DAE2DAC66394}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48640083-287B-4D4C-8B61-943E3677DABE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2112" yWindow="648" windowWidth="18420" windowHeight="10356" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C2功能测试点总览" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="123">
   <si>
     <t>测试功能点</t>
   </si>
@@ -461,6 +461,38 @@
   </si>
   <si>
     <t>网络侦察兵19</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络侦察兵20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>外国网站测试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序不崩溃</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>下发外国被墙网站url，观察程序反应</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>下发外国被墙网站www.google.com，观察程序反应</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘原</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙启蕴</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -842,13 +874,13 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.125" customWidth="1"/>
-    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -856,7 +888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -873,25 +905,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.375" customWidth="1"/>
-    <col min="2" max="2" width="23.5" customWidth="1"/>
-    <col min="3" max="3" width="22.875" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" customWidth="1"/>
     <col min="4" max="4" width="44" customWidth="1"/>
-    <col min="5" max="5" width="40.375" customWidth="1"/>
-    <col min="6" max="6" width="12.125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="26.875" customWidth="1"/>
-    <col min="8" max="9" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="40.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="26.88671875" customWidth="1"/>
+    <col min="8" max="9" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -920,7 +952,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -946,7 +978,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -972,7 +1004,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -998,7 +1030,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1024,7 +1056,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1050,7 +1082,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1076,7 +1108,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -1102,7 +1134,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -1128,7 +1160,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -1154,7 +1186,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -1180,7 +1212,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -1206,7 +1238,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -1232,7 +1264,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -1258,7 +1290,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>63</v>
       </c>
@@ -1284,7 +1316,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>67</v>
       </c>
@@ -1310,7 +1342,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>78</v>
       </c>
@@ -1336,7 +1368,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>110</v>
       </c>
@@ -1363,7 +1395,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>80</v>
       </c>
@@ -1390,7 +1422,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="6" t="s">
@@ -1410,7 +1442,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>112</v>
       </c>
@@ -1437,7 +1469,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>113</v>
       </c>
@@ -1464,7 +1496,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>113</v>
       </c>
@@ -1491,7 +1523,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>113</v>
       </c>
@@ -1518,7 +1550,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>113</v>
       </c>
@@ -1545,7 +1577,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>114</v>
       </c>
@@ -1570,6 +1602,32 @@
       </c>
       <c r="I26" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
